--- a/docs/画面設計_データ共有.xlsx
+++ b/docs/画面設計_データ共有.xlsx
@@ -5,28 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\develop\datatest\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\develop\datasharing\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17139293-DC2B-4B02-8DED-2BA522D259EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79D2A1EB-D2FF-43DD-8784-1C5B260F6ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1545" yWindow="600" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mj09RKfKa4x9xtpxrAX1YyTJFkJcw=="/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
   <si>
     <t>login.php</t>
   </si>
@@ -455,375 +461,80 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>坂本　勇人</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>丸　佳浩</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>岡本　和真</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>亀井　善行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ゲレーロ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>大城　卓三</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>若林　晃弘</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小林　誠司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ビヤヌエバ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>陽　岱鋼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>山本　泰寛</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>阿部　慎之助</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>田中　俊太</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>重信　慎之介</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>炭谷　銀仁朗</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>石川　慎吾</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>中島　宏之</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>増田　大輝</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>吉川　尚輝</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>立岡　宗一郎</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>山下　航汰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>吉川　大幾</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マルティネス</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>北村　拓己</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>岸田　行倫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>宇佐見　真吾</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>加藤　脩平</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>田中　貴也</t>
-    </r>
+    <t>順位</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>邦題</t>
+    <rPh sb="0" eb="2">
+      <t>ホウダイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>原題</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンダイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>公開年</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>監督</t>
+    <rPh sb="0" eb="2">
+      <t>カントク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>制作者</t>
+    <rPh sb="0" eb="3">
+      <t>セイサクシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出演</t>
+    <rPh sb="0" eb="2">
+      <t>シュツエン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>受賞</t>
+    <rPh sb="0" eb="2">
+      <t>ジュショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,12 +550,14 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -899,33 +612,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4F4F4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="25">
@@ -1193,11 +886,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1282,66 +974,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1381,30 +1013,83 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1620,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:BM78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="BV12" sqref="BV12"/>
     </sheetView>
   </sheetViews>
@@ -1731,18 +1416,18 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="4"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="50"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="30"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
@@ -1798,7 +1483,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="6"/>
-      <c r="AB5" s="51"/>
+      <c r="AB5" s="31"/>
       <c r="AC5" s="25" t="s">
         <v>58</v>
       </c>
@@ -1811,7 +1496,7 @@
       <c r="AJ5" s="24"/>
       <c r="AK5" s="24"/>
       <c r="AL5" s="24"/>
-      <c r="AM5" s="52"/>
+      <c r="AM5" s="32"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="1" t="s">
         <v>18</v>
@@ -1844,18 +1529,18 @@
     </row>
     <row r="6" spans="2:65" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="6"/>
       <c r="O6" s="5"/>
       <c r="P6" s="22"/>
@@ -1869,7 +1554,7 @@
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="Z6" s="6"/>
-      <c r="AB6" s="51"/>
+      <c r="AB6" s="31"/>
       <c r="AC6" s="24"/>
       <c r="AD6" s="24"/>
       <c r="AE6" s="24"/>
@@ -1880,7 +1565,7 @@
       <c r="AJ6" s="24"/>
       <c r="AK6" s="24"/>
       <c r="AL6" s="24"/>
-      <c r="AM6" s="52"/>
+      <c r="AM6" s="32"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
@@ -1934,8 +1619,8 @@
       <c r="X7" s="24"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="6"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="56" t="s">
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="36" t="s">
         <v>61</v>
       </c>
       <c r="AD7" s="24"/>
@@ -1947,7 +1632,7 @@
       <c r="AJ7" s="24"/>
       <c r="AK7" s="24"/>
       <c r="AL7" s="24"/>
-      <c r="AM7" s="52"/>
+      <c r="AM7" s="32"/>
       <c r="AO7" s="5"/>
       <c r="AP7" s="1" t="s">
         <v>19</v>
@@ -2003,18 +1688,18 @@
       <c r="X8" s="24"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="6"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="58"/>
-      <c r="AK8" s="58"/>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="52"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="32"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -2043,16 +1728,16 @@
     </row>
     <row r="9" spans="2:65" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="60"/>
       <c r="M9" s="6"/>
       <c r="O9" s="5"/>
       <c r="P9" s="23"/>
@@ -2068,7 +1753,7 @@
       <c r="X9" s="24"/>
       <c r="Y9" s="23"/>
       <c r="Z9" s="6"/>
-      <c r="AB9" s="51"/>
+      <c r="AB9" s="31"/>
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
       <c r="AE9" s="24"/>
@@ -2079,15 +1764,15 @@
       <c r="AJ9" s="24"/>
       <c r="AK9" s="24"/>
       <c r="AL9" s="24"/>
-      <c r="AM9" s="52"/>
+      <c r="AM9" s="32"/>
       <c r="AO9" s="5"/>
-      <c r="AP9" s="39" t="s">
+      <c r="AP9" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40"/>
-      <c r="AS9" s="40"/>
-      <c r="AT9" s="41"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="51"/>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
@@ -2096,18 +1781,18 @@
       <c r="AZ9" s="6"/>
       <c r="BA9"/>
       <c r="BB9" s="5"/>
-      <c r="BC9" s="39" t="s">
+      <c r="BC9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="BD9" s="40"/>
-      <c r="BE9" s="40"/>
-      <c r="BF9" s="40"/>
-      <c r="BG9" s="40"/>
-      <c r="BH9" s="40"/>
-      <c r="BI9" s="40"/>
-      <c r="BJ9" s="40"/>
-      <c r="BK9" s="40"/>
-      <c r="BL9" s="41"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="50"/>
+      <c r="BK9" s="50"/>
+      <c r="BL9" s="51"/>
       <c r="BM9" s="6"/>
     </row>
     <row r="10" spans="2:65" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2135,8 +1820,8 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="6"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="56" t="s">
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="36" t="s">
         <v>62</v>
       </c>
       <c r="AD10" s="24"/>
@@ -2148,7 +1833,7 @@
       <c r="AJ10" s="24"/>
       <c r="AK10" s="24"/>
       <c r="AL10" s="24"/>
-      <c r="AM10" s="52"/>
+      <c r="AM10" s="32"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -2178,16 +1863,16 @@
     <row r="11" spans="2:65" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="1"/>
       <c r="M11" s="6"/>
       <c r="O11" s="5"/>
@@ -2204,20 +1889,20 @@
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="6"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="59"/>
-      <c r="AM11" s="52"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="39"/>
+      <c r="AM11" s="32"/>
       <c r="AO11" s="5"/>
-      <c r="AP11" s="60" t="s">
+      <c r="AP11" s="40" t="s">
         <v>66</v>
       </c>
       <c r="AQ11" s="1" t="s">
@@ -2233,7 +1918,7 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="6"/>
       <c r="BA11"/>
-      <c r="BB11" s="67" t="s">
+      <c r="BB11" s="41" t="s">
         <v>27</v>
       </c>
       <c r="BD11" s="1" t="s">
@@ -2259,14 +1944,14 @@
     <row r="12" spans="2:65" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
       <c r="L12" s="1"/>
       <c r="M12" s="6"/>
       <c r="O12" s="5"/>
@@ -2281,7 +1966,7 @@
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="6"/>
-      <c r="AB12" s="51"/>
+      <c r="AB12" s="31"/>
       <c r="AC12" s="24"/>
       <c r="AD12" s="24"/>
       <c r="AE12" s="24"/>
@@ -2292,7 +1977,7 @@
       <c r="AJ12" s="24"/>
       <c r="AK12" s="24"/>
       <c r="AL12" s="24"/>
-      <c r="AM12" s="52"/>
+      <c r="AM12" s="32"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -2306,7 +1991,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="6"/>
       <c r="BA12"/>
-      <c r="BB12" s="67">
+      <c r="BB12" s="41">
         <v>1</v>
       </c>
       <c r="BD12" s="1" t="s">
@@ -2356,8 +2041,8 @@
       <c r="X13" s="23"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="6"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="56" t="s">
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="36" t="s">
         <v>63</v>
       </c>
       <c r="AD13" s="24"/>
@@ -2369,7 +2054,7 @@
       <c r="AJ13" s="24"/>
       <c r="AK13" s="24"/>
       <c r="AL13" s="24"/>
-      <c r="AM13" s="52"/>
+      <c r="AM13" s="32"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -2383,7 +2068,7 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="6"/>
       <c r="BA13"/>
-      <c r="BB13" s="67">
+      <c r="BB13" s="41">
         <v>2</v>
       </c>
       <c r="BD13" s="1" t="s">
@@ -2433,18 +2118,18 @@
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="6"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="52"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="32"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -2458,7 +2143,7 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="6"/>
       <c r="BA14"/>
-      <c r="BB14" s="67">
+      <c r="BB14" s="41">
         <v>3</v>
       </c>
       <c r="BD14" s="1" t="s">
@@ -2508,7 +2193,7 @@
       <c r="X15" s="23"/>
       <c r="Y15" s="23"/>
       <c r="Z15" s="6"/>
-      <c r="AB15" s="51"/>
+      <c r="AB15" s="31"/>
       <c r="AC15" s="24"/>
       <c r="AD15" s="24"/>
       <c r="AE15" s="24"/>
@@ -2519,7 +2204,7 @@
       <c r="AJ15" s="24"/>
       <c r="AK15" s="24"/>
       <c r="AL15" s="24"/>
-      <c r="AM15" s="52"/>
+      <c r="AM15" s="32"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
@@ -2533,7 +2218,7 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="6"/>
       <c r="BA15"/>
-      <c r="BB15" s="67">
+      <c r="BB15" s="41">
         <v>4</v>
       </c>
       <c r="BD15" s="1" t="s">
@@ -2571,8 +2256,8 @@
       <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="6"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="56" t="s">
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="36" t="s">
         <v>64</v>
       </c>
       <c r="AD16" s="24"/>
@@ -2584,7 +2269,7 @@
       <c r="AJ16" s="24"/>
       <c r="AK16" s="24"/>
       <c r="AL16" s="24"/>
-      <c r="AM16" s="52"/>
+      <c r="AM16" s="32"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -2598,7 +2283,7 @@
       <c r="AY16" s="1"/>
       <c r="AZ16" s="6"/>
       <c r="BA16"/>
-      <c r="BB16" s="67">
+      <c r="BB16" s="41">
         <v>5</v>
       </c>
       <c r="BD16" s="1" t="s">
@@ -2636,18 +2321,18 @@
       <c r="X17" s="23"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="6"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="52"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="39"/>
+      <c r="AM17" s="32"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
@@ -2661,7 +2346,7 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="6"/>
       <c r="BA17"/>
-      <c r="BB17" s="67">
+      <c r="BB17" s="41">
         <v>6</v>
       </c>
       <c r="BD17" s="1" t="s">
@@ -2699,7 +2384,7 @@
       <c r="X18" s="23"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="6"/>
-      <c r="AB18" s="51"/>
+      <c r="AB18" s="31"/>
       <c r="AC18" s="24"/>
       <c r="AD18" s="24"/>
       <c r="AE18" s="24"/>
@@ -2710,7 +2395,7 @@
       <c r="AJ18" s="24"/>
       <c r="AK18" s="24"/>
       <c r="AL18" s="24"/>
-      <c r="AM18" s="52"/>
+      <c r="AM18" s="32"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -2752,7 +2437,7 @@
       <c r="X19" s="23"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="6"/>
-      <c r="AB19" s="51"/>
+      <c r="AB19" s="31"/>
       <c r="AC19" s="24"/>
       <c r="AD19" s="24"/>
       <c r="AE19" s="24"/>
@@ -2763,7 +2448,7 @@
       <c r="AJ19" s="24"/>
       <c r="AK19" s="24"/>
       <c r="AL19" s="24"/>
-      <c r="AM19" s="52"/>
+      <c r="AM19" s="32"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
@@ -2805,7 +2490,7 @@
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="6"/>
-      <c r="AB20" s="51"/>
+      <c r="AB20" s="31"/>
       <c r="AC20" s="24"/>
       <c r="AD20" s="24"/>
       <c r="AE20" s="24"/>
@@ -2816,7 +2501,7 @@
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
       <c r="AL20" s="24"/>
-      <c r="AM20" s="52"/>
+      <c r="AM20" s="32"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -2874,7 +2559,7 @@
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="6"/>
-      <c r="AB21" s="51"/>
+      <c r="AB21" s="31"/>
       <c r="AC21" s="24"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24"/>
@@ -2885,7 +2570,7 @@
       <c r="AJ21" s="24"/>
       <c r="AK21" s="24"/>
       <c r="AL21" s="24"/>
-      <c r="AM21" s="52"/>
+      <c r="AM21" s="32"/>
       <c r="AO21" s="5"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
@@ -2927,7 +2612,7 @@
       <c r="X22" s="23"/>
       <c r="Y22" s="23"/>
       <c r="Z22" s="6"/>
-      <c r="AB22" s="51"/>
+      <c r="AB22" s="31"/>
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="24"/>
@@ -2938,7 +2623,7 @@
       <c r="AJ22" s="24"/>
       <c r="AK22" s="24"/>
       <c r="AL22" s="24"/>
-      <c r="AM22" s="52"/>
+      <c r="AM22" s="32"/>
       <c r="AO22" s="5"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
@@ -2990,32 +2675,32 @@
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="6"/>
-      <c r="AB23" s="51"/>
+      <c r="AB23" s="31"/>
       <c r="AC23" s="24"/>
-      <c r="AD23" s="28" t="s">
+      <c r="AD23" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="35"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="54"/>
       <c r="AL23" s="24"/>
-      <c r="AM23" s="52"/>
+      <c r="AM23" s="32"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="1"/>
-      <c r="AQ23" s="28" t="s">
+      <c r="AQ23" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="AR23" s="34"/>
-      <c r="AS23" s="34"/>
-      <c r="AT23" s="34"/>
-      <c r="AU23" s="34"/>
-      <c r="AV23" s="34"/>
-      <c r="AW23" s="34"/>
-      <c r="AX23" s="35"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="53"/>
+      <c r="AT23" s="53"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="54"/>
       <c r="AY23" s="1"/>
       <c r="AZ23" s="6"/>
       <c r="BA23"/>
@@ -3057,28 +2742,28 @@
       <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="6"/>
-      <c r="AB24" s="51"/>
+      <c r="AB24" s="31"/>
       <c r="AC24" s="24"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="38"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="57"/>
       <c r="AL24" s="24"/>
-      <c r="AM24" s="52"/>
+      <c r="AM24" s="32"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="1"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="37"/>
-      <c r="AS24" s="37"/>
-      <c r="AT24" s="37"/>
-      <c r="AU24" s="37"/>
-      <c r="AV24" s="37"/>
-      <c r="AW24" s="37"/>
-      <c r="AX24" s="38"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="56"/>
+      <c r="AS24" s="56"/>
+      <c r="AT24" s="56"/>
+      <c r="AU24" s="56"/>
+      <c r="AV24" s="56"/>
+      <c r="AW24" s="56"/>
+      <c r="AX24" s="57"/>
       <c r="AY24" s="1"/>
       <c r="AZ24" s="6"/>
       <c r="BA24"/>
@@ -3120,7 +2805,7 @@
       <c r="X25" s="23"/>
       <c r="Y25" s="23"/>
       <c r="Z25" s="6"/>
-      <c r="AB25" s="51"/>
+      <c r="AB25" s="31"/>
       <c r="AC25" s="24"/>
       <c r="AD25" s="24"/>
       <c r="AE25" s="24"/>
@@ -3131,7 +2816,7 @@
       <c r="AJ25" s="24"/>
       <c r="AK25" s="24"/>
       <c r="AL25" s="24"/>
-      <c r="AM25" s="52"/>
+      <c r="AM25" s="32"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
@@ -3183,18 +2868,18 @@
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="12"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="55"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="35"/>
       <c r="AO26" s="10"/>
       <c r="AP26" s="11"/>
       <c r="AQ26" s="11"/>
@@ -4081,16 +3766,16 @@
       <c r="O42" s="15"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="1"/>
-      <c r="AD42" s="28" t="s">
+      <c r="AD42" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="29"/>
-      <c r="AI42" s="29"/>
-      <c r="AJ42" s="29"/>
-      <c r="AK42" s="30"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="61"/>
+      <c r="AK42" s="62"/>
       <c r="AL42" s="1"/>
       <c r="AM42" s="6"/>
       <c r="AO42" s="5"/>
@@ -4136,14 +3821,14 @@
       <c r="O43" s="15"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="1"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="32"/>
-      <c r="AF43" s="32"/>
-      <c r="AG43" s="32"/>
-      <c r="AH43" s="32"/>
-      <c r="AI43" s="32"/>
-      <c r="AJ43" s="32"/>
-      <c r="AK43" s="33"/>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="64"/>
+      <c r="AF43" s="64"/>
+      <c r="AG43" s="64"/>
+      <c r="AH43" s="64"/>
+      <c r="AI43" s="64"/>
+      <c r="AJ43" s="64"/>
+      <c r="AK43" s="65"/>
       <c r="AL43" s="1"/>
       <c r="AM43" s="6"/>
       <c r="AO43" s="5"/>
@@ -4238,16 +3923,16 @@
       <c r="O45" s="15"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="1"/>
-      <c r="AD45" s="28" t="s">
+      <c r="AD45" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="29"/>
-      <c r="AJ45" s="29"/>
-      <c r="AK45" s="30"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="62"/>
       <c r="AL45" s="1"/>
       <c r="AM45" s="6"/>
       <c r="AO45" s="5"/>
@@ -4291,14 +3976,14 @@
       <c r="O46" s="15"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="32"/>
-      <c r="AH46" s="32"/>
-      <c r="AI46" s="32"/>
-      <c r="AJ46" s="32"/>
-      <c r="AK46" s="33"/>
+      <c r="AD46" s="63"/>
+      <c r="AE46" s="64"/>
+      <c r="AF46" s="64"/>
+      <c r="AG46" s="64"/>
+      <c r="AH46" s="64"/>
+      <c r="AI46" s="64"/>
+      <c r="AJ46" s="64"/>
+      <c r="AK46" s="65"/>
       <c r="AL46" s="1"/>
       <c r="AM46" s="6"/>
       <c r="AO46" s="5"/>
@@ -4433,16 +4118,16 @@
     <row r="49" spans="2:65" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="35"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="54"/>
       <c r="L49" s="1"/>
       <c r="M49" s="6"/>
       <c r="O49" s="15"/>
@@ -4486,14 +4171,14 @@
     <row r="50" spans="2:65" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="38"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="57"/>
       <c r="L50" s="1"/>
       <c r="M50" s="6"/>
       <c r="O50" s="15"/>
@@ -5198,1843 +4883,683 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U1000"/>
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="7.625" customWidth="1"/>
+    <col min="1" max="25" width="7.625" style="44" customWidth="1"/>
+    <col min="26" max="16384" width="12.625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61">
-        <v>6</v>
-      </c>
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="63">
-        <v>0.312</v>
-      </c>
-      <c r="D1" s="63">
-        <v>555</v>
-      </c>
-      <c r="E1" s="63">
-        <v>173</v>
-      </c>
-      <c r="F1" s="63">
-        <v>40</v>
-      </c>
-      <c r="G1" s="63">
-        <v>94</v>
-      </c>
-      <c r="H1" s="63">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="I1" s="63">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="J1" s="63">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="K1" s="63">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="L1" s="63">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="M1" s="63">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="N1" s="63">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="O1" s="63">
-        <v>121.48</v>
-      </c>
-      <c r="P1" s="63">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="Q1" s="63">
-        <v>118.25</v>
-      </c>
-      <c r="R1" s="63">
-        <v>8</v>
-      </c>
-      <c r="S1" s="63">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="T1" s="63">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="U1" s="63">
-        <v>1.0149999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64">
-        <v>8</v>
-      </c>
-      <c r="B2" s="65" t="s">
+      <c r="B1" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="66">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D2" s="66">
-        <v>535</v>
-      </c>
-      <c r="E2" s="66">
-        <v>156</v>
-      </c>
-      <c r="F2" s="66">
-        <v>27</v>
-      </c>
-      <c r="G2" s="66">
-        <v>89</v>
-      </c>
-      <c r="H2" s="66">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="I2" s="66">
-        <v>0.495</v>
-      </c>
-      <c r="J2" s="66">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="K2" s="66">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="L2" s="66">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="M2" s="66">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="N2" s="66">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="O2" s="66">
-        <v>102.49</v>
-      </c>
-      <c r="P2" s="66">
-        <v>6.82</v>
-      </c>
-      <c r="Q2" s="66">
-        <v>102.12</v>
-      </c>
-      <c r="R2" s="66">
-        <v>6.79</v>
-      </c>
-      <c r="S2" s="66">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="T2" s="66">
-        <v>0.378</v>
-      </c>
-      <c r="U2" s="66">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
-        <v>25</v>
-      </c>
-      <c r="B3" s="62" t="s">
+      <c r="C1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="63">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D3" s="63">
-        <v>555</v>
-      </c>
-      <c r="E3" s="63">
-        <v>147</v>
-      </c>
-      <c r="F3" s="63">
-        <v>31</v>
-      </c>
-      <c r="G3" s="63">
-        <v>94</v>
-      </c>
-      <c r="H3" s="63">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="I3" s="63">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="J3" s="63">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="K3" s="63">
-        <v>0.505</v>
-      </c>
-      <c r="L3" s="63">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="M3" s="63">
-        <v>0.22</v>
-      </c>
-      <c r="N3" s="63">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="O3" s="63">
-        <v>90.64</v>
-      </c>
-      <c r="P3" s="63">
-        <v>5.72</v>
-      </c>
-      <c r="Q3" s="63">
-        <v>90.27</v>
-      </c>
-      <c r="R3" s="63">
-        <v>5.69</v>
-      </c>
-      <c r="S3" s="63">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="T3" s="63">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="U3" s="63">
-        <v>0.80400000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64">
-        <v>9</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="D1" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="66">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="D4" s="66">
-        <v>450</v>
-      </c>
-      <c r="E4" s="66">
-        <v>128</v>
-      </c>
-      <c r="F4" s="66">
-        <v>13</v>
-      </c>
-      <c r="G4" s="66">
-        <v>55</v>
-      </c>
-      <c r="H4" s="66">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="I4" s="66">
-        <v>0.44</v>
-      </c>
-      <c r="J4" s="66">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="K4" s="66">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="L4" s="66">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="M4" s="66">
-        <v>0.156</v>
-      </c>
-      <c r="N4" s="66">
-        <v>6.2E-2</v>
-      </c>
-      <c r="O4" s="66">
-        <v>70.849999999999994</v>
-      </c>
-      <c r="P4" s="66">
-        <v>5.68</v>
-      </c>
-      <c r="Q4" s="66">
-        <v>69.61</v>
-      </c>
-      <c r="R4" s="66">
-        <v>5.58</v>
-      </c>
-      <c r="S4" s="66">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="T4" s="66">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="U4" s="66">
-        <v>0.76300000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61">
-        <v>44</v>
-      </c>
-      <c r="B5" s="62" t="s">
+      <c r="E1" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="63">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="D5" s="63">
-        <v>287</v>
-      </c>
-      <c r="E5" s="63">
-        <v>68</v>
-      </c>
-      <c r="F5" s="63">
-        <v>21</v>
-      </c>
-      <c r="G5" s="63">
-        <v>54</v>
-      </c>
-      <c r="H5" s="63">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="I5" s="63">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="J5" s="63">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="K5" s="63">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="L5" s="63">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="M5" s="63">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="N5" s="63">
-        <v>0.1</v>
-      </c>
-      <c r="O5" s="63">
-        <v>51.46</v>
-      </c>
-      <c r="P5" s="63">
-        <v>6.15</v>
-      </c>
-      <c r="Q5" s="63">
-        <v>51.68</v>
-      </c>
-      <c r="R5" s="63">
-        <v>6.17</v>
-      </c>
-      <c r="S5" s="63">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="T5" s="63">
-        <v>0.432</v>
-      </c>
-      <c r="U5" s="63">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64">
-        <v>46</v>
-      </c>
-      <c r="B6" s="65" t="s">
+      <c r="F1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="66">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="D6" s="66">
-        <v>294</v>
-      </c>
-      <c r="E6" s="66">
-        <v>78</v>
-      </c>
-      <c r="F6" s="66">
-        <v>6</v>
-      </c>
-      <c r="G6" s="66">
-        <v>30</v>
-      </c>
-      <c r="H6" s="66">
-        <v>0.33</v>
-      </c>
-      <c r="I6" s="66">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="J6" s="66">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="K6" s="66">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="L6" s="66">
-        <v>0.246</v>
-      </c>
-      <c r="M6" s="66">
-        <v>0.122</v>
-      </c>
-      <c r="N6" s="66">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O6" s="66">
-        <v>36.81</v>
-      </c>
-      <c r="P6" s="66">
-        <v>4.32</v>
-      </c>
-      <c r="Q6" s="66">
-        <v>36.14</v>
-      </c>
-      <c r="R6" s="66">
-        <v>4.24</v>
-      </c>
-      <c r="S6" s="66">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="T6" s="66">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="U6" s="66">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61">
-        <v>60</v>
-      </c>
-      <c r="B7" s="62" t="s">
+      <c r="G1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="63">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="D7" s="63">
-        <v>234</v>
-      </c>
-      <c r="E7" s="63">
-        <v>56</v>
-      </c>
-      <c r="F7" s="63">
-        <v>5</v>
-      </c>
-      <c r="G7" s="63">
-        <v>21</v>
-      </c>
-      <c r="H7" s="63">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="I7" s="63">
-        <v>0.35</v>
-      </c>
-      <c r="J7" s="63">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="K7" s="63">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="L7" s="63">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="M7" s="63">
-        <v>0.111</v>
-      </c>
-      <c r="N7" s="63">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="O7" s="63">
-        <v>30.86</v>
-      </c>
-      <c r="P7" s="63">
-        <v>4.43</v>
-      </c>
-      <c r="Q7" s="63">
-        <v>31.02</v>
-      </c>
-      <c r="R7" s="63">
-        <v>4.46</v>
-      </c>
-      <c r="S7" s="63">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="T7" s="63">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="U7" s="63">
-        <v>0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64">
-        <v>22</v>
-      </c>
-      <c r="B8" s="65" t="s">
+      <c r="H1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="66">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="D8" s="66">
-        <v>213</v>
-      </c>
-      <c r="E8" s="66">
-        <v>52</v>
-      </c>
-      <c r="F8" s="66">
-        <v>2</v>
-      </c>
-      <c r="G8" s="66">
-        <v>19</v>
-      </c>
-      <c r="H8" s="66">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I8" s="66">
-        <v>0.3</v>
-      </c>
-      <c r="J8" s="66">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K8" s="66">
-        <v>0.38</v>
-      </c>
-      <c r="L8" s="66">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="M8" s="66">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="N8" s="66">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="O8" s="66">
-        <v>14.45</v>
-      </c>
-      <c r="P8" s="66">
-        <v>2.11</v>
-      </c>
-      <c r="Q8" s="66">
-        <v>14.62</v>
-      </c>
-      <c r="R8" s="66">
-        <v>2.13</v>
-      </c>
-      <c r="S8" s="66">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="T8" s="66">
-        <v>9.4E-2</v>
-      </c>
-      <c r="U8" s="66">
-        <v>0.439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61">
-        <v>33</v>
-      </c>
-      <c r="B9" s="62" t="s">
+      <c r="I1" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="63">
-        <v>0.223</v>
-      </c>
-      <c r="D9" s="63">
-        <v>202</v>
-      </c>
-      <c r="E9" s="63">
-        <v>45</v>
-      </c>
-      <c r="F9" s="63">
-        <v>8</v>
-      </c>
-      <c r="G9" s="63">
-        <v>24</v>
-      </c>
-      <c r="H9" s="63">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="I9" s="63">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="J9" s="63">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="K9" s="63">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="L9" s="63">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="M9" s="63">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="N9" s="63">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="O9" s="63">
-        <v>26.24</v>
-      </c>
-      <c r="P9" s="63">
-        <v>4.32</v>
-      </c>
-      <c r="Q9" s="63">
-        <v>26.91</v>
-      </c>
-      <c r="R9" s="63">
-        <v>4.43</v>
-      </c>
-      <c r="S9" s="63">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="T9" s="63">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="U9" s="63">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64">
-        <v>2</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="66">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="D10" s="66">
-        <v>208</v>
-      </c>
-      <c r="E10" s="66">
-        <v>57</v>
-      </c>
-      <c r="F10" s="66">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45">
         <v>4</v>
       </c>
-      <c r="G10" s="66">
-        <v>21</v>
-      </c>
-      <c r="H10" s="66">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="I10" s="66">
-        <v>0.38</v>
-      </c>
-      <c r="J10" s="66">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="K10" s="66">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="L10" s="66">
-        <v>0.251</v>
-      </c>
-      <c r="M10" s="66">
-        <v>0.106</v>
-      </c>
-      <c r="N10" s="66">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="O10" s="66">
-        <v>25.16</v>
-      </c>
-      <c r="P10" s="66">
-        <v>4.22</v>
-      </c>
-      <c r="Q10" s="66">
-        <v>24.61</v>
-      </c>
-      <c r="R10" s="66">
-        <v>4.13</v>
-      </c>
-      <c r="S10" s="66">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="T10" s="66">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="U10" s="66">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61">
-        <v>56</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="63">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="D11" s="63">
-        <v>177</v>
-      </c>
-      <c r="E11" s="63">
-        <v>41</v>
-      </c>
-      <c r="F11" s="63">
-        <v>2</v>
-      </c>
-      <c r="G11" s="63">
+      <c r="B2" s="45">
+        <v>17</v>
+      </c>
+      <c r="C2" s="45">
+        <v>18</v>
+      </c>
+      <c r="D2" s="45">
+        <v>7</v>
+      </c>
+      <c r="E2" s="45">
         <v>10</v>
       </c>
-      <c r="H11" s="63">
-        <v>0.34</v>
-      </c>
-      <c r="I11" s="63">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="J11" s="63">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="K11" s="63">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="L11" s="63">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="M11" s="63">
-        <v>0.107</v>
-      </c>
-      <c r="N11" s="63">
-        <v>0.108</v>
-      </c>
-      <c r="O11" s="63">
-        <v>22.4</v>
-      </c>
-      <c r="P11" s="63">
-        <v>4.17</v>
-      </c>
-      <c r="Q11" s="63">
-        <v>22.15</v>
-      </c>
-      <c r="R11" s="63">
-        <v>4.12</v>
-      </c>
-      <c r="S11" s="63">
-        <v>0.3</v>
-      </c>
-      <c r="T11" s="63">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="U11" s="63">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64">
+      <c r="F2" s="45">
         <v>10</v>
       </c>
-      <c r="B12" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="66">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="D12" s="66">
-        <v>158</v>
-      </c>
-      <c r="E12" s="66">
-        <v>47</v>
-      </c>
-      <c r="F12" s="66">
+      <c r="G2" s="45">
+        <v>10</v>
+      </c>
+      <c r="H2" s="45">
+        <v>10</v>
+      </c>
+      <c r="I2" s="45">
         <v>7</v>
       </c>
-      <c r="G12" s="66">
-        <v>27</v>
-      </c>
-      <c r="H12" s="66">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="I12" s="66">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="J12" s="66">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="K12" s="66">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="L12" s="66">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="M12" s="66">
-        <v>0.184</v>
-      </c>
-      <c r="N12" s="66">
-        <v>0.114</v>
-      </c>
-      <c r="O12" s="66">
-        <v>33.21</v>
-      </c>
-      <c r="P12" s="66">
-        <v>7.86</v>
-      </c>
-      <c r="Q12" s="66">
-        <v>32.74</v>
-      </c>
-      <c r="R12" s="66">
-        <v>7.75</v>
-      </c>
-      <c r="S12" s="66">
-        <v>0.308</v>
-      </c>
-      <c r="T12" s="66">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="U12" s="66">
-        <v>0.96399999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61">
-        <v>51</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="63">
-        <v>0.224</v>
-      </c>
-      <c r="D13" s="63">
-        <v>156</v>
-      </c>
-      <c r="E13" s="63">
-        <v>35</v>
-      </c>
-      <c r="F13" s="63">
-        <v>4</v>
-      </c>
-      <c r="G13" s="63">
-        <v>14</v>
-      </c>
-      <c r="H13" s="63">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="I13" s="63">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="J13" s="63">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="K13" s="63">
-        <v>0.4</v>
-      </c>
-      <c r="L13" s="63">
-        <v>0.215</v>
-      </c>
-      <c r="M13" s="63">
-        <v>0.122</v>
-      </c>
-      <c r="N13" s="63">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="O13" s="63">
-        <v>16.149999999999999</v>
-      </c>
-      <c r="P13" s="63">
-        <v>3.38</v>
-      </c>
-      <c r="Q13" s="63">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="R13" s="63">
-        <v>3.54</v>
-      </c>
-      <c r="S13" s="63">
-        <v>0.254</v>
-      </c>
-      <c r="T13" s="63">
-        <v>0.224</v>
-      </c>
-      <c r="U13" s="63">
-        <v>0.56899999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64">
-        <v>43</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="66">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="D14" s="66">
-        <v>158</v>
-      </c>
-      <c r="E14" s="66">
-        <v>42</v>
-      </c>
-      <c r="F14" s="66">
-        <v>2</v>
-      </c>
-      <c r="G14" s="66">
-        <v>16</v>
-      </c>
-      <c r="H14" s="66">
-        <v>0.308</v>
-      </c>
-      <c r="I14" s="66">
-        <v>0.373</v>
-      </c>
-      <c r="J14" s="66">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="K14" s="66">
-        <v>0.433</v>
-      </c>
-      <c r="L14" s="66">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="M14" s="66">
-        <v>0.108</v>
-      </c>
-      <c r="N14" s="66">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="O14" s="66">
-        <v>20.440000000000001</v>
-      </c>
-      <c r="P14" s="66">
-        <v>4.42</v>
-      </c>
-      <c r="Q14" s="66">
-        <v>20.75</v>
-      </c>
-      <c r="R14" s="66">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="S14" s="66">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="T14" s="66">
-        <v>0.247</v>
-      </c>
-      <c r="U14" s="66">
-        <v>0.67500000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61">
-        <v>27</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="63">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="D15" s="63">
-        <v>126</v>
-      </c>
-      <c r="E15" s="63">
-        <v>33</v>
-      </c>
-      <c r="F15" s="63">
-        <v>6</v>
-      </c>
-      <c r="G15" s="63">
-        <v>26</v>
-      </c>
-      <c r="H15" s="63">
-        <v>0.309</v>
-      </c>
-      <c r="I15" s="63">
-        <v>0.437</v>
-      </c>
-      <c r="J15" s="63">
-        <v>0.745</v>
-      </c>
-      <c r="K15" s="63">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="L15" s="63">
-        <v>0.248</v>
-      </c>
-      <c r="M15" s="63">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="N15" s="63">
-        <v>4.7E-2</v>
-      </c>
-      <c r="O15" s="63">
-        <v>16.13</v>
-      </c>
-      <c r="P15" s="63">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="Q15" s="63">
-        <v>16.37</v>
-      </c>
-      <c r="R15" s="63">
-        <v>4.42</v>
-      </c>
-      <c r="S15" s="63">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="T15" s="63">
-        <v>0.23</v>
-      </c>
-      <c r="U15" s="63">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64">
-        <v>36</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="66">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="D16" s="66">
-        <v>70</v>
-      </c>
-      <c r="E16" s="66">
-        <v>18</v>
-      </c>
-      <c r="F16" s="66">
-        <v>4</v>
-      </c>
-      <c r="G16" s="66">
-        <v>10</v>
-      </c>
-      <c r="H16" s="66">
-        <v>0.316</v>
-      </c>
-      <c r="I16" s="66">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="J16" s="66">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="K16" s="66">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="L16" s="66">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="M16" s="66">
-        <v>0.2</v>
-      </c>
-      <c r="N16" s="66">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="O16" s="66">
-        <v>9.64</v>
-      </c>
-      <c r="P16" s="66">
-        <v>4.82</v>
-      </c>
-      <c r="Q16" s="66">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="R16" s="66">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="S16" s="66">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="T16" s="66">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="U16" s="66">
-        <v>0.70399999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61">
-        <v>5</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="63">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="D17" s="63">
-        <v>54</v>
-      </c>
-      <c r="E17" s="63">
-        <v>8</v>
-      </c>
-      <c r="F17" s="63">
-        <v>1</v>
-      </c>
-      <c r="G17" s="63">
-        <v>5</v>
-      </c>
-      <c r="H17" s="63">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="I17" s="63">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="J17" s="63">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="K17" s="63">
-        <v>0.37</v>
-      </c>
-      <c r="L17" s="63">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="M17" s="63">
-        <v>0.13</v>
-      </c>
-      <c r="N17" s="63">
-        <v>0.129</v>
-      </c>
-      <c r="O17" s="63">
-        <v>4.53</v>
-      </c>
-      <c r="P17" s="63">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="Q17" s="63">
-        <v>5.09</v>
-      </c>
-      <c r="R17" s="63">
-        <v>2.86</v>
-      </c>
-      <c r="S17" s="63">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="T17" s="63">
-        <v>0.315</v>
-      </c>
-      <c r="U17" s="63">
-        <v>0.55300000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64">
-        <v>63</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="66">
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="66">
-        <v>50</v>
-      </c>
-      <c r="E18" s="66">
-        <v>10</v>
-      </c>
-      <c r="F18" s="66">
-        <v>0</v>
-      </c>
-      <c r="G18" s="66">
-        <v>6</v>
-      </c>
-      <c r="H18" s="66">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="I18" s="66">
-        <v>0.32</v>
-      </c>
-      <c r="J18" s="66">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="K18" s="66">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="L18" s="66">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="M18" s="66">
-        <v>0.12</v>
-      </c>
-      <c r="N18" s="66">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="O18" s="66">
-        <v>6.28</v>
-      </c>
-      <c r="P18" s="66">
-        <v>3.69</v>
-      </c>
-      <c r="Q18" s="66">
-        <v>6.27</v>
-      </c>
-      <c r="R18" s="66">
-        <v>3.68</v>
-      </c>
-      <c r="S18" s="66">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="T18" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="U18" s="66">
-        <v>0.79500000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61">
-        <v>0</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="63">
-        <v>0.39</v>
-      </c>
-      <c r="D19" s="63">
-        <v>41</v>
-      </c>
-      <c r="E19" s="63">
-        <v>16</v>
-      </c>
-      <c r="F19" s="63">
-        <v>0</v>
-      </c>
-      <c r="G19" s="63">
-        <v>3</v>
-      </c>
-      <c r="H19" s="63">
-        <v>0.432</v>
-      </c>
-      <c r="I19" s="63">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="J19" s="63">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="K19" s="63">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L19" s="63">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="M19" s="63">
-        <v>2.4E-2</v>
-      </c>
-      <c r="N19" s="63">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="O19" s="63">
-        <v>6.64</v>
-      </c>
-      <c r="P19" s="63">
-        <v>5.98</v>
-      </c>
-      <c r="Q19" s="63">
-        <v>6.21</v>
-      </c>
-      <c r="R19" s="63">
-        <v>5.59</v>
-      </c>
-      <c r="S19" s="63">
-        <v>0.41</v>
-      </c>
-      <c r="T19" s="63">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="U19" s="63">
-        <v>0.67900000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64">
-        <v>39</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="66">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="D20" s="66">
-        <v>14</v>
-      </c>
-      <c r="E20" s="66">
-        <v>4</v>
-      </c>
-      <c r="F20" s="66">
-        <v>0</v>
-      </c>
-      <c r="G20" s="66">
-        <v>1</v>
-      </c>
-      <c r="H20" s="66">
-        <v>0.375</v>
-      </c>
-      <c r="I20" s="66">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="J20" s="66">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="K20" s="66">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="L20" s="66">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="M20" s="66">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="N20" s="66">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="O20" s="66">
-        <v>2.97</v>
-      </c>
-      <c r="P20" s="66">
-        <v>8.01</v>
-      </c>
-      <c r="Q20" s="66">
-        <v>2.73</v>
-      </c>
-      <c r="R20" s="66">
-        <v>7.37</v>
-      </c>
-      <c r="S20" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="T20" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="U20" s="66">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61">
-        <v>99</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="63">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D21" s="63">
-        <v>12</v>
-      </c>
-      <c r="E21" s="63">
-        <v>2</v>
-      </c>
-      <c r="F21" s="63">
-        <v>0</v>
-      </c>
-      <c r="G21" s="63">
-        <v>0</v>
-      </c>
-      <c r="H21" s="63">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="I21" s="63">
-        <v>0.25</v>
-      </c>
-      <c r="J21" s="63">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="K21" s="63">
-        <v>0.314</v>
-      </c>
-      <c r="L21" s="63">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="M21" s="63">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="N21" s="63">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="O21" s="63">
-        <v>0.64</v>
-      </c>
-      <c r="P21" s="63">
-        <v>1.72</v>
-      </c>
-      <c r="Q21" s="63">
-        <v>0.64</v>
-      </c>
-      <c r="R21" s="63">
-        <v>1.73</v>
-      </c>
-      <c r="S21" s="63">
-        <v>0.2</v>
-      </c>
-      <c r="T21" s="63">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="U21" s="63">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64">
-        <v>0</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="66">
-        <v>0</v>
-      </c>
-      <c r="D22" s="66">
-        <v>9</v>
-      </c>
-      <c r="E22" s="66">
-        <v>0</v>
-      </c>
-      <c r="F22" s="66">
-        <v>0</v>
-      </c>
-      <c r="G22" s="66">
-        <v>0</v>
-      </c>
-      <c r="H22" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="66">
-        <v>0</v>
-      </c>
-      <c r="J22" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="L22" s="66">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="M22" s="66">
-        <v>0</v>
-      </c>
-      <c r="N22" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="O22" s="66">
-        <v>-0.95</v>
-      </c>
-      <c r="P22" s="66">
-        <v>-2.58</v>
-      </c>
-      <c r="Q22" s="66">
-        <v>-0.86</v>
-      </c>
-      <c r="R22" s="66">
-        <v>-2.3199999999999998</v>
-      </c>
-      <c r="S22" s="66">
-        <v>0</v>
-      </c>
-      <c r="T22" s="66">
-        <v>0.111</v>
-      </c>
-      <c r="U22" s="66">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61">
-        <v>96</v>
-      </c>
-      <c r="B23" s="62" t="s">
+      <c r="J2" s="45">
+        <v>7</v>
+      </c>
+      <c r="K2" s="45">
+        <f>SUM(A2:J2)</f>
         <v>100</v>
       </c>
-      <c r="C23" s="63">
-        <v>0.125</v>
-      </c>
-      <c r="D23" s="63">
-        <v>8</v>
-      </c>
-      <c r="E23" s="63">
-        <v>1</v>
-      </c>
-      <c r="F23" s="63">
-        <v>0</v>
-      </c>
-      <c r="G23" s="63">
-        <v>1</v>
-      </c>
-      <c r="H23" s="63">
-        <v>0.125</v>
-      </c>
-      <c r="I23" s="63">
-        <v>0.25</v>
-      </c>
-      <c r="J23" s="63">
-        <v>0.375</v>
-      </c>
-      <c r="K23" s="63">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="L23" s="63">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="M23" s="63">
-        <v>0.125</v>
-      </c>
-      <c r="N23" s="63">
-        <v>0</v>
-      </c>
-      <c r="O23" s="63">
-        <v>0.05</v>
-      </c>
-      <c r="P23" s="63">
-        <v>0.2</v>
-      </c>
-      <c r="Q23" s="63">
-        <v>0.05</v>
-      </c>
-      <c r="R23" s="63">
-        <v>0.19</v>
-      </c>
-      <c r="S23" s="63">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="T23" s="63">
-        <v>0.125</v>
-      </c>
-      <c r="U23" s="63">
-        <v>0.28599999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="64">
-        <v>52</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="66">
-        <v>0</v>
-      </c>
-      <c r="D24" s="66">
-        <v>5</v>
-      </c>
-      <c r="E24" s="66">
-        <v>0</v>
-      </c>
-      <c r="F24" s="66">
-        <v>0</v>
-      </c>
-      <c r="G24" s="66">
-        <v>0</v>
-      </c>
-      <c r="H24" s="66">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="I24" s="66">
-        <v>0</v>
-      </c>
-      <c r="J24" s="66">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="K24" s="66">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="L24" s="66">
-        <v>0.129</v>
-      </c>
-      <c r="M24" s="66">
-        <v>0</v>
-      </c>
-      <c r="N24" s="66">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="O24" s="66">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P24" s="66">
-        <v>1.59</v>
-      </c>
-      <c r="Q24" s="66">
-        <v>0.39</v>
-      </c>
-      <c r="R24" s="66">
-        <v>2.11</v>
-      </c>
-      <c r="S24" s="66">
-        <v>0</v>
-      </c>
-      <c r="T24" s="66">
-        <v>0.4</v>
-      </c>
-      <c r="U24" s="66">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61">
-        <v>38</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="63">
-        <v>0</v>
-      </c>
-      <c r="D25" s="63">
-        <v>7</v>
-      </c>
-      <c r="E25" s="63">
-        <v>0</v>
-      </c>
-      <c r="F25" s="63">
-        <v>0</v>
-      </c>
-      <c r="G25" s="63">
-        <v>0</v>
-      </c>
-      <c r="H25" s="63">
-        <v>0</v>
-      </c>
-      <c r="I25" s="63">
-        <v>0</v>
-      </c>
-      <c r="J25" s="63">
-        <v>0</v>
-      </c>
-      <c r="K25" s="63">
-        <v>0</v>
-      </c>
-      <c r="L25" s="63">
-        <v>0</v>
-      </c>
-      <c r="M25" s="63">
-        <v>0</v>
-      </c>
-      <c r="N25" s="63">
-        <v>0</v>
-      </c>
-      <c r="O25" s="63">
-        <v>-0.72</v>
-      </c>
-      <c r="P25" s="63">
-        <v>-2.76</v>
-      </c>
-      <c r="Q25" s="63">
-        <v>-0.65</v>
-      </c>
-      <c r="R25" s="63">
-        <v>-2.5099999999999998</v>
-      </c>
-      <c r="S25" s="63">
-        <v>0</v>
-      </c>
-      <c r="T25" s="63">
-        <v>0</v>
-      </c>
-      <c r="U25" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64">
-        <v>32</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="D26" s="66">
-        <v>4</v>
-      </c>
-      <c r="E26" s="66">
-        <v>1</v>
-      </c>
-      <c r="F26" s="66">
-        <v>0</v>
-      </c>
-      <c r="G26" s="66">
-        <v>0</v>
-      </c>
-      <c r="H26" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="I26" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="J26" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="66">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L26" s="66">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="M26" s="66">
-        <v>0</v>
-      </c>
-      <c r="N26" s="66">
-        <v>0</v>
-      </c>
-      <c r="O26" s="66">
-        <v>0.23</v>
-      </c>
-      <c r="P26" s="66">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="Q26" s="66">
-        <v>0.23</v>
-      </c>
-      <c r="R26" s="66">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="S26" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="T26" s="66">
-        <v>0</v>
-      </c>
-      <c r="U26" s="66">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61">
-        <v>94</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="63">
-        <v>0</v>
-      </c>
-      <c r="D27" s="63">
-        <v>3</v>
-      </c>
-      <c r="E27" s="63">
-        <v>0</v>
-      </c>
-      <c r="F27" s="63">
-        <v>0</v>
-      </c>
-      <c r="G27" s="63">
-        <v>0</v>
-      </c>
-      <c r="H27" s="63">
-        <v>0</v>
-      </c>
-      <c r="I27" s="63">
-        <v>0</v>
-      </c>
-      <c r="J27" s="63">
-        <v>0</v>
-      </c>
-      <c r="K27" s="63">
-        <v>0</v>
-      </c>
-      <c r="L27" s="63">
-        <v>0</v>
-      </c>
-      <c r="M27" s="63">
-        <v>0</v>
-      </c>
-      <c r="N27" s="63">
-        <v>0</v>
-      </c>
-      <c r="O27" s="63">
-        <v>-0.31</v>
-      </c>
-      <c r="P27" s="63">
-        <v>-2.77</v>
-      </c>
-      <c r="Q27" s="63">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="R27" s="63">
-        <v>-2.52</v>
-      </c>
-      <c r="S27" s="63">
-        <v>0</v>
-      </c>
-      <c r="T27" s="63">
-        <v>0</v>
-      </c>
-      <c r="U27" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="64">
-        <v>69</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="66">
-        <v>0</v>
-      </c>
-      <c r="D28" s="66">
-        <v>0</v>
-      </c>
-      <c r="E28" s="66">
-        <v>0</v>
-      </c>
-      <c r="F28" s="66">
-        <v>0</v>
-      </c>
-      <c r="G28" s="66">
-        <v>0</v>
-      </c>
-      <c r="H28" s="66">
-        <v>0</v>
-      </c>
-      <c r="I28" s="66">
-        <v>0</v>
-      </c>
-      <c r="J28" s="66">
-        <v>0</v>
-      </c>
-      <c r="K28" s="66">
-        <v>0</v>
-      </c>
-      <c r="L28" s="66">
-        <v>0</v>
-      </c>
-      <c r="M28" s="66">
-        <v>0</v>
-      </c>
-      <c r="N28" s="66">
-        <v>0</v>
-      </c>
-      <c r="O28" s="66">
-        <v>0</v>
-      </c>
-      <c r="P28" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="66">
-        <v>0</v>
-      </c>
-      <c r="R28" s="66">
-        <v>0</v>
-      </c>
-      <c r="S28" s="66">
-        <v>0</v>
-      </c>
-      <c r="T28" s="66">
-        <v>0</v>
-      </c>
-      <c r="U28" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+    </row>
+    <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+    </row>
+    <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+    </row>
+    <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+    </row>
+    <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+    </row>
+    <row r="10" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+    </row>
+    <row r="11" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+    </row>
+    <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+    </row>
+    <row r="13" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+    </row>
+    <row r="14" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+    </row>
+    <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+    </row>
+    <row r="16" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+    </row>
+    <row r="19" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+    </row>
+    <row r="20" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+    </row>
+    <row r="22" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+    </row>
+    <row r="23" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+    </row>
+    <row r="24" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+    </row>
+    <row r="25" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+    </row>
+    <row r="26" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+    </row>
+    <row r="27" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+    </row>
+    <row r="28" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+    </row>
+    <row r="29" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8005,36 +6530,6 @@
     <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="5"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://baseball-data.com/19/player/g/%E5%9D%82%E6%9C%AC%E3%80%80%E5%8B%87%E4%BA%BA" xr:uid="{2F84E4EE-E58B-4D86-A3FE-217A07CEC6E2}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://baseball-data.com/19/player/g/%E4%B8%B8%E3%80%80%E4%BD%B3%E6%B5%A9" xr:uid="{03F20AF7-60ED-49E0-9DCB-AA1D00530101}"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://baseball-data.com/19/player/g/%E5%B2%A1%E6%9C%AC%E3%80%80%E5%92%8C%E7%9C%9F" xr:uid="{3CEB17B1-0722-405C-A8A1-9C09C3D15049}"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://baseball-data.com/19/player/g/%E4%BA%80%E4%BA%95%E3%80%80%E5%96%84%E8%A1%8C" xr:uid="{A0385FFC-CD32-4901-B80E-264A8D13C1F6}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://baseball-data.com/19/player/g/%E3%82%B2%E3%83%AC%E3%83%BC%E3%83%AD" xr:uid="{CDBD81AA-4125-4122-94DC-202B65BD795A}"/>
-    <hyperlink ref="B6" r:id="rId6" display="https://baseball-data.com/19/player/g/%E5%A4%A7%E5%9F%8E%E3%80%80%E5%8D%93%E4%B8%89" xr:uid="{36BDAF24-1D0B-4E4E-A344-87FFFDB3F33A}"/>
-    <hyperlink ref="B7" r:id="rId7" display="https://baseball-data.com/19/player/g/%E8%8B%A5%E6%9E%97%E3%80%80%E6%99%83%E5%BC%98" xr:uid="{A021011D-0274-44C1-A8F2-79BDA0F79982}"/>
-    <hyperlink ref="B8" r:id="rId8" display="https://baseball-data.com/19/player/g/%E5%B0%8F%E6%9E%97%E3%80%80%E8%AA%A0%E5%8F%B8" xr:uid="{61EDEFF7-597D-4F72-8EFD-FAB4D39A3E21}"/>
-    <hyperlink ref="B9" r:id="rId9" display="https://baseball-data.com/19/player/g/%E3%83%93%E3%83%A4%E3%83%8C%E3%82%A8%E3%83%90" xr:uid="{81B81BFE-4FCB-46F1-A758-E040AC4255B9}"/>
-    <hyperlink ref="B10" r:id="rId10" display="https://baseball-data.com/19/player/g/%E9%99%BD%E3%80%80%E5%B2%B1%E9%8B%BC" xr:uid="{5F4DECAC-3CB8-4B6B-93A5-41A1A6FA43BA}"/>
-    <hyperlink ref="B11" r:id="rId11" display="https://baseball-data.com/19/player/g/%E5%B1%B1%E6%9C%AC%E3%80%80%E6%B3%B0%E5%AF%9B" xr:uid="{E2E41EE9-1229-4C97-B84A-64E04A76ED5A}"/>
-    <hyperlink ref="B12" r:id="rId12" display="https://baseball-data.com/19/player/g/%E9%98%BF%E9%83%A8%E3%80%80%E6%85%8E%E4%B9%8B%E5%8A%A9" xr:uid="{85861E6B-9F4D-4A30-AE66-6AFE4B5DD378}"/>
-    <hyperlink ref="B13" r:id="rId13" display="https://baseball-data.com/19/player/g/%E7%94%B0%E4%B8%AD%E3%80%80%E4%BF%8A%E5%A4%AA" xr:uid="{5E2235E5-9077-41F2-99ED-EE91934296F5}"/>
-    <hyperlink ref="B14" r:id="rId14" display="https://baseball-data.com/19/player/g/%E9%87%8D%E4%BF%A1%E3%80%80%E6%85%8E%E4%B9%8B%E4%BB%8B" xr:uid="{A7BF6CB9-96C3-431C-B217-4E3F1E4CC75B}"/>
-    <hyperlink ref="B15" r:id="rId15" display="https://baseball-data.com/19/player/g/%E7%82%AD%E8%B0%B7%E3%80%80%E9%8A%80%E4%BB%81%EF%A4%A9" xr:uid="{C83C9592-1FB3-4240-A290-68651399F721}"/>
-    <hyperlink ref="B16" r:id="rId16" display="https://baseball-data.com/19/player/g/%E7%9F%B3%E5%B7%9D%E3%80%80%E6%85%8E%E5%90%BE" xr:uid="{64F147C8-61CE-4271-89DA-7B2439688698}"/>
-    <hyperlink ref="B17" r:id="rId17" display="https://baseball-data.com/19/player/g/%E4%B8%AD%E5%B3%B6%E3%80%80%E5%AE%8F%E4%B9%8B" xr:uid="{A2CA21DF-682F-4D86-B736-EFEDE7E1ACBE}"/>
-    <hyperlink ref="B18" r:id="rId18" display="https://baseball-data.com/19/player/g/%E5%A2%97%E7%94%B0%E3%80%80%E5%A4%A7%E8%BC%9D" xr:uid="{2904F955-0552-4A35-A399-2BFB5B791ADD}"/>
-    <hyperlink ref="B19" r:id="rId19" display="https://baseball-data.com/19/player/g/%E5%90%89%E5%B7%9D%E3%80%80%E5%B0%9A%E8%BC%9D" xr:uid="{2553A7E5-21B9-40BF-A0CE-4F4CA2CE39B3}"/>
-    <hyperlink ref="B20" r:id="rId20" display="https://baseball-data.com/19/player/g/%E7%AB%8B%E5%B2%A1%E3%80%80%E5%AE%97%E4%B8%80%E9%83%8E" xr:uid="{A85F55C8-69E7-42A3-A141-B2D48F7310D0}"/>
-    <hyperlink ref="B21" r:id="rId21" display="https://baseball-data.com/19/player/g/%E5%B1%B1%E4%B8%8B%E3%80%80%E8%88%AA%E6%B1%B0" xr:uid="{B4E0EB0F-EE6E-40E9-B5BB-3C00B0903486}"/>
-    <hyperlink ref="B22" r:id="rId22" display="https://baseball-data.com/19/player/g/%E5%90%89%E5%B7%9D%E3%80%80%E5%A4%A7%E5%B9%BE" xr:uid="{2F0D94DF-74BF-494A-AEDB-58D19793EA8F}"/>
-    <hyperlink ref="B23" r:id="rId23" display="https://baseball-data.com/19/player/g/%E3%83%9E%E3%83%AB%E3%83%86%E3%82%A3%E3%83%8D%E3%82%B9" xr:uid="{6F67215B-453B-48B1-A899-5690FD62E400}"/>
-    <hyperlink ref="B24" r:id="rId24" display="https://baseball-data.com/19/player/g/%E5%8C%97%E6%9D%91%E3%80%80%E6%8B%93%E5%B7%B1" xr:uid="{F265D12F-BFD0-4532-A74A-49EA024A4A28}"/>
-    <hyperlink ref="B25" r:id="rId25" display="https://baseball-data.com/19/player/g/%E5%B2%B8%E7%94%B0%E3%80%80%E8%A1%8C%E5%80%AB" xr:uid="{EF92D38F-E726-4D64-9705-42285BFFA9D3}"/>
-    <hyperlink ref="B26" r:id="rId26" display="https://baseball-data.com/19/player/g/%E5%AE%87%E4%BD%90%E8%A6%8B%E3%80%80%E7%9C%9F%E5%90%BE" xr:uid="{260E2526-99F8-409F-887B-EDA472C78541}"/>
-    <hyperlink ref="B27" r:id="rId27" display="https://baseball-data.com/19/player/g/%E5%8A%A0%E8%97%A4%E3%80%80%E8%84%A9%E5%B9%B3" xr:uid="{E6E9BEB5-2C1C-48C3-95DE-5C787E15FF9B}"/>
-    <hyperlink ref="B28" r:id="rId28" display="https://baseball-data.com/19/player/g/%E7%94%B0%E4%B8%AD%E3%80%80%E8%B2%B4%E4%B9%9F" xr:uid="{B6662148-FF90-47DB-BB24-43C524F7BBFA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
